--- a/DateBase/orders/Dang Nguyen48_2026-1-17.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-1-17.xlsx
@@ -929,6 +929,9 @@
       <c r="G2" t="str">
         <v>0138101124810441452855106610107551015102830201510101520101010156681025555151510</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
